--- a/Daniel/Code inspection.xlsx
+++ b/Daniel/Code inspection.xlsx
@@ -12,8 +12,9 @@
     <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7755"/>
   </bookViews>
   <sheets>
-    <sheet name="Method" sheetId="1" r:id="rId1"/>
-    <sheet name="Metrics" sheetId="2" r:id="rId2"/>
+    <sheet name="Method real" sheetId="3" r:id="rId1"/>
+    <sheet name="Method" sheetId="1" r:id="rId2"/>
+    <sheet name="Metrics" sheetId="2" r:id="rId3"/>
   </sheets>
   <calcPr calcId="152511"/>
   <extLst>
@@ -25,6 +26,40 @@
 </file>
 
 <file path=xl/comments1.xml><?xml version="1.0" encoding="utf-8"?>
+<comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <authors>
+    <author>Daniel Felipe Vacca Manrique</author>
+  </authors>
+  <commentList>
+    <comment ref="B28" authorId="0" shapeId="0">
+      <text>
+        <r>
+          <rPr>
+            <b/>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t>Daniel Felipe Vacca Manrique:</t>
+        </r>
+        <r>
+          <rPr>
+            <sz val="9"/>
+            <color indexed="81"/>
+            <rFont val="Tahoma"/>
+            <family val="2"/>
+          </rPr>
+          <t xml:space="preserve">
+Not for the method</t>
+        </r>
+      </text>
+    </comment>
+  </commentList>
+</comments>
+</file>
+
+<file path=xl/comments2.xml><?xml version="1.0" encoding="utf-8"?>
 <comments xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <authors>
     <author>Daniel Felipe Vacca Manrique</author>
@@ -59,7 +94,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="57" uniqueCount="53">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="76" uniqueCount="55">
   <si>
     <t>Point</t>
   </si>
@@ -354,6 +389,12 @@
       </rPr>
       <t xml:space="preserve"> parameter might not be initialized.</t>
     </r>
+  </si>
+  <si>
+    <t>Blank line could be used to separate cases.</t>
+  </si>
+  <si>
+    <t>This constants could be implemented as an enum.</t>
   </si>
 </sst>
 </file>
@@ -725,9 +766,11 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C70"/>
+  <dimension ref="A1:C68"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="A51" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
@@ -745,24 +788,14 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2">
         <v>1</v>
       </c>
-      <c r="B2">
-        <v>686</v>
-      </c>
-      <c r="C2" s="2" t="s">
-        <v>3</v>
-      </c>
+      <c r="C2" s="2"/>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B3">
-        <v>714</v>
-      </c>
-      <c r="C3" s="2" t="s">
-        <v>4</v>
-      </c>
+      <c r="C3" s="2"/>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A4">
@@ -783,12 +816,6 @@
       <c r="A7" s="5">
         <v>5</v>
       </c>
-      <c r="B7">
-        <v>687</v>
-      </c>
-      <c r="C7" t="s">
-        <v>5</v>
-      </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A8" s="5">
@@ -825,364 +852,328 @@
         <v>12</v>
       </c>
       <c r="B14">
-        <v>689</v>
+        <v>745</v>
       </c>
       <c r="C14" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.25">
       <c r="B15">
-        <v>705</v>
+        <v>752</v>
       </c>
       <c r="C15" t="s">
-        <v>6</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B16">
-        <v>707</v>
-      </c>
-      <c r="C16" t="s">
-        <v>6</v>
+      <c r="A16">
+        <v>13</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B17">
-        <v>710</v>
-      </c>
-      <c r="C17" t="s">
-        <v>7</v>
+      <c r="A17">
+        <v>14</v>
       </c>
     </row>
     <row r="18" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A18">
-        <v>13</v>
+        <v>15</v>
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A19">
-        <v>14</v>
+        <v>16</v>
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A20">
-        <v>15</v>
+        <v>17</v>
       </c>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A21">
-        <v>16</v>
+      <c r="A21" s="6">
+        <v>18</v>
+      </c>
+      <c r="B21">
+        <v>744</v>
+      </c>
+      <c r="C21" t="s">
+        <v>9</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A22">
-        <v>17</v>
-      </c>
-      <c r="B22">
-        <v>688</v>
-      </c>
-      <c r="C22" t="s">
-        <v>45</v>
+        <v>19</v>
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A23" s="6">
-        <v>18</v>
-      </c>
-      <c r="B23">
-        <v>686</v>
-      </c>
-      <c r="C23" t="s">
-        <v>9</v>
+      <c r="A23" s="5">
+        <v>20</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A24">
-        <v>19</v>
+      <c r="A24" s="5">
+        <v>21</v>
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A25" s="5">
-        <v>20</v>
+        <v>22</v>
       </c>
     </row>
     <row r="26" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A26" s="5">
-        <v>21</v>
+        <v>23</v>
+      </c>
+      <c r="B26" t="s">
+        <v>10</v>
+      </c>
+      <c r="C26" t="s">
+        <v>11</v>
       </c>
     </row>
     <row r="27" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A27" s="5">
-        <v>22</v>
+        <v>24</v>
       </c>
     </row>
     <row r="28" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A28" s="5">
-        <v>23</v>
-      </c>
-      <c r="B28" t="s">
-        <v>10</v>
+        <v>25</v>
+      </c>
+      <c r="B28">
+        <v>89</v>
       </c>
       <c r="C28" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="29" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A29" s="5">
-        <v>24</v>
+      <c r="A29" s="5"/>
+      <c r="B29">
+        <v>106</v>
+      </c>
+      <c r="C29" t="s">
+        <v>12</v>
       </c>
     </row>
     <row r="30" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A30" s="5">
-        <v>25</v>
-      </c>
+      <c r="A30" s="5"/>
       <c r="B30">
-        <v>89</v>
+        <v>109</v>
       </c>
       <c r="C30" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
     </row>
     <row r="31" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A31" s="5"/>
       <c r="B31">
-        <v>106</v>
+        <v>137</v>
       </c>
       <c r="C31" t="s">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="32" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A32" s="5"/>
-      <c r="B32">
-        <v>109</v>
+      <c r="A32" s="5">
+        <v>26</v>
+      </c>
+      <c r="B32" t="s">
+        <v>15</v>
       </c>
       <c r="C32" t="s">
-        <v>12</v>
+        <v>46</v>
       </c>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A33" s="5"/>
-      <c r="B33">
-        <v>137</v>
-      </c>
-      <c r="C33" t="s">
-        <v>13</v>
+      <c r="A33" s="5">
+        <v>27</v>
       </c>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A34" s="5">
-        <v>26</v>
-      </c>
-      <c r="B34" t="s">
-        <v>15</v>
+      <c r="A34">
+        <v>28</v>
+      </c>
+      <c r="B34" s="5" t="s">
+        <v>44</v>
       </c>
       <c r="C34" t="s">
-        <v>46</v>
+        <v>47</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A35" s="5">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A36">
-        <v>28</v>
-      </c>
-      <c r="B36" s="5" t="s">
-        <v>44</v>
-      </c>
-      <c r="C36" t="s">
-        <v>47</v>
+      <c r="B35" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C35" t="s">
+        <v>49</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B37" s="5" t="s">
-        <v>48</v>
-      </c>
-      <c r="C37" t="s">
-        <v>49</v>
+      <c r="A37">
+        <v>29</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="B38">
-        <v>709</v>
-      </c>
-      <c r="C38" t="s">
-        <v>50</v>
+      <c r="A38" s="7">
+        <v>30</v>
       </c>
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A39">
-        <v>29</v>
-      </c>
-      <c r="B39">
-        <v>698</v>
-      </c>
-      <c r="C39" t="s">
-        <v>51</v>
+        <v>31</v>
       </c>
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A40" s="7">
-        <v>30</v>
+      <c r="A40">
+        <v>32</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A41">
-        <v>31</v>
-      </c>
-      <c r="B41">
-        <v>686</v>
-      </c>
-      <c r="C41" t="s">
-        <v>52</v>
+        <v>33</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A42">
-        <v>32</v>
+        <v>34</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A43">
-        <v>33</v>
+        <v>35</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A44">
-        <v>34</v>
+        <v>36</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A45">
-        <v>35</v>
+        <v>37</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A46">
-        <v>36</v>
+        <v>38</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A47">
-        <v>37</v>
+        <v>39</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A48">
-        <v>38</v>
-      </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A49">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A50">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A51">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A52">
-        <v>42</v>
-      </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+        <v>44</v>
+      </c>
+      <c r="B52" s="5">
+        <v>92</v>
+      </c>
+      <c r="C52" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A53">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A54">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A55">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A56">
-        <v>46</v>
-      </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A57">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A58">
-        <v>48</v>
-      </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A59">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A60">
-        <v>50</v>
-      </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A61">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A62">
-        <v>52</v>
-      </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A63">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A64">
-        <v>54</v>
+        <v>56</v>
       </c>
     </row>
     <row r="65" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A65">
-        <v>55</v>
+        <v>57</v>
       </c>
     </row>
     <row r="66" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A66">
-        <v>56</v>
+        <v>58</v>
       </c>
     </row>
     <row r="67" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A67">
-        <v>57</v>
+        <v>59</v>
       </c>
     </row>
     <row r="68" spans="1:1" x14ac:dyDescent="0.25">
       <c r="A68">
-        <v>58</v>
-      </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A69">
-        <v>59</v>
-      </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
-      <c r="A70">
         <v>60</v>
       </c>
     </row>
@@ -1194,6 +1185,478 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+  <dimension ref="A1:C70"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C23" sqref="C23"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="162.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A1" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="1" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="2" spans="1:3" ht="30" x14ac:dyDescent="0.25">
+      <c r="A2">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>686</v>
+      </c>
+      <c r="C2" s="2" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>714</v>
+      </c>
+      <c r="C3" s="2" t="s">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A5" s="5">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A6" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A7" s="5">
+        <v>5</v>
+      </c>
+      <c r="B7">
+        <v>687</v>
+      </c>
+      <c r="C7" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A8" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="9" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A9" s="5">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A10">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A11">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="12" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A12">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A14">
+        <v>12</v>
+      </c>
+      <c r="B14">
+        <v>689</v>
+      </c>
+      <c r="C14" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B15">
+        <v>705</v>
+      </c>
+      <c r="C15" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B16">
+        <v>707</v>
+      </c>
+      <c r="C16" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B17">
+        <v>710</v>
+      </c>
+      <c r="C17" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A18">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A20">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A21">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A22">
+        <v>17</v>
+      </c>
+      <c r="B22">
+        <v>688</v>
+      </c>
+      <c r="C22" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A23" s="6">
+        <v>18</v>
+      </c>
+      <c r="B23">
+        <v>686</v>
+      </c>
+      <c r="C23" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A24">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A25" s="5">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A26" s="5">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A27" s="5">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A28" s="5">
+        <v>23</v>
+      </c>
+      <c r="B28" t="s">
+        <v>10</v>
+      </c>
+      <c r="C28" t="s">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A29" s="5">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A30" s="5">
+        <v>25</v>
+      </c>
+      <c r="B30">
+        <v>89</v>
+      </c>
+      <c r="C30" t="s">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A31" s="5"/>
+      <c r="B31">
+        <v>106</v>
+      </c>
+      <c r="C31" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A32" s="5"/>
+      <c r="B32">
+        <v>109</v>
+      </c>
+      <c r="C32" t="s">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A33" s="5"/>
+      <c r="B33">
+        <v>137</v>
+      </c>
+      <c r="C33" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A34" s="5">
+        <v>26</v>
+      </c>
+      <c r="B34" t="s">
+        <v>15</v>
+      </c>
+      <c r="C34" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A35" s="5">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A36">
+        <v>28</v>
+      </c>
+      <c r="B36" s="5" t="s">
+        <v>44</v>
+      </c>
+      <c r="C36" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B37" s="5" t="s">
+        <v>48</v>
+      </c>
+      <c r="C37" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="B38">
+        <v>709</v>
+      </c>
+      <c r="C38" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A39">
+        <v>29</v>
+      </c>
+      <c r="B39">
+        <v>698</v>
+      </c>
+      <c r="C39" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A40" s="7">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A41">
+        <v>31</v>
+      </c>
+      <c r="B41">
+        <v>686</v>
+      </c>
+      <c r="C41" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A42">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A43">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A44">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A45">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="46" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A46">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A47">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A48">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="49" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A49">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="50" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A50">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="51" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A51">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="52" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A52">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="53" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A53">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="54" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A54">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="55" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A55">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="56" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A56">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="57" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A57">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="58" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A58">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="59" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A59">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="60" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A60">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="61" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A61">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="62" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A62">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="63" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A63">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="64" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A64">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="65" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A65">
+        <v>55</v>
+      </c>
+    </row>
+    <row r="66" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A66">
+        <v>56</v>
+      </c>
+    </row>
+    <row r="67" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A67">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="68" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A68">
+        <v>58</v>
+      </c>
+    </row>
+    <row r="69" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A69">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="70" spans="1:1" x14ac:dyDescent="0.25">
+      <c r="A70">
+        <v>60</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
+  <legacyDrawing r:id="rId2"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:E27"/>
   <sheetViews>
